--- a/table/tableA1.xlsx
+++ b/table/tableA1.xlsx
@@ -1,31 +1,110 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\GitHub\MPhil-Thesis-Project\table\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C67080-C335-4B75-8F5A-1492EA16C0DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="7630" yWindow="2090" windowWidth="11950" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+  <si>
+    <t>Panel B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Export</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Markup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Markup+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TFP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TFP+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>External Finance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tangibility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dlnRER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dlnRGDP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dlnRER*ExtFin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dlnRER*Tang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -37,7 +116,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,15 +124,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +428,484 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H15:H16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="str">
+        <f>"-0.042**"</f>
+        <v>-0.042**</v>
+      </c>
+      <c r="C4" s="3" t="str">
+        <f>"-0.045**"</f>
+        <v>-0.045**</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f>"-0.116***"</f>
+        <v>-0.116***</v>
+      </c>
+      <c r="E4" s="3" t="str">
+        <f>"0.046***"</f>
+        <v>0.046***</v>
+      </c>
+      <c r="F4" s="3" t="str">
+        <f>"0.046***"</f>
+        <v>0.046***</v>
+      </c>
+      <c r="G4" s="3" t="str">
+        <f>"-0.001"</f>
+        <v>-0.001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="str">
+        <f>"(0.021)"</f>
+        <v>(0.021)</v>
+      </c>
+      <c r="C5" s="3" t="str">
+        <f>"(0.021)"</f>
+        <v>(0.021)</v>
+      </c>
+      <c r="D5" s="3" t="str">
+        <f>"(0.027)"</f>
+        <v>(0.027)</v>
+      </c>
+      <c r="E5" s="3" t="str">
+        <f>"(0.006)"</f>
+        <v>(0.006)</v>
+      </c>
+      <c r="F5" s="3" t="str">
+        <f>"(0.006)"</f>
+        <v>(0.006)</v>
+      </c>
+      <c r="G5" s="3" t="str">
+        <f>"(0.019)"</f>
+        <v>(0.019)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="str">
+        <f>"-0.078*"</f>
+        <v>-0.078*</v>
+      </c>
+      <c r="C6" s="3" t="str">
+        <f>"-0.080*"</f>
+        <v>-0.080*</v>
+      </c>
+      <c r="D6" s="3" t="str">
+        <f>"-0.081*"</f>
+        <v>-0.081*</v>
+      </c>
+      <c r="E6" s="3" t="str">
+        <f>"-0.080*"</f>
+        <v>-0.080*</v>
+      </c>
+      <c r="F6" s="3" t="str">
+        <f>"-0.081*"</f>
+        <v>-0.081*</v>
+      </c>
+      <c r="G6" s="3" t="str">
+        <f>"-0.081*"</f>
+        <v>-0.081*</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="str">
+        <f>"(0.042)"</f>
+        <v>(0.042)</v>
+      </c>
+      <c r="C7" s="3" t="str">
+        <f>"(0.042)"</f>
+        <v>(0.042)</v>
+      </c>
+      <c r="D7" s="3" t="str">
+        <f>"(0.042)"</f>
+        <v>(0.042)</v>
+      </c>
+      <c r="E7" s="3" t="str">
+        <f>"(0.042)"</f>
+        <v>(0.042)</v>
+      </c>
+      <c r="F7" s="3" t="str">
+        <f>"(0.042)"</f>
+        <v>(0.042)</v>
+      </c>
+      <c r="G7" s="3" t="str">
+        <f>"(0.042)"</f>
+        <v>(0.042)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="str">
+        <f>"x_Markup_lag"</f>
+        <v>x_Markup_lag</v>
+      </c>
+      <c r="B8" s="3" t="str">
+        <f>"0.060***"</f>
+        <v>0.060***</v>
+      </c>
+      <c r="C8" s="3" t="str">
+        <f>"0.066***"</f>
+        <v>0.066***</v>
+      </c>
+      <c r="D8" s="3" t="str">
+        <f>"0.062***"</f>
+        <v>0.062***</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="str">
+        <f>"(0.015)"</f>
+        <v>(0.015)</v>
+      </c>
+      <c r="C9" s="3" t="str">
+        <f>"(0.015)"</f>
+        <v>(0.015)</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f>"(0.015)"</f>
+        <v>(0.015)</v>
+      </c>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="str">
+        <f>"x_tfp_lag"</f>
+        <v>x_tfp_lag</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="str">
+        <f>"-0.045***"</f>
+        <v>-0.045***</v>
+      </c>
+      <c r="F10" s="3" t="str">
+        <f>"-0.037***"</f>
+        <v>-0.037***</v>
+      </c>
+      <c r="G10" s="3" t="str">
+        <f>"-0.035***"</f>
+        <v>-0.035***</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="str">
+        <f>"(0.009)"</f>
+        <v>(0.009)</v>
+      </c>
+      <c r="F11" s="3" t="str">
+        <f>"(0.009)"</f>
+        <v>(0.009)</v>
+      </c>
+      <c r="G11" s="3" t="str">
+        <f>"(0.009)"</f>
+        <v>(0.009)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="str">
+        <f>"-0.064***"</f>
+        <v>-0.064***</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="str">
+        <f>"-0.035**"</f>
+        <v>-0.035**</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="str">
+        <f>"(0.015)"</f>
+        <v>(0.015)</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="str">
+        <f>"(0.017)"</f>
+        <v>(0.017)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="str">
+        <f>"0.271***"</f>
+        <v>0.271***</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="G14" s="3" t="str">
+        <f>"0.170**"</f>
+        <v>0.170**</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="str">
+        <f>"(0.061)"</f>
+        <v>(0.061)</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="G15" s="3" t="str">
+        <f>"(0.067)"</f>
+        <v>(0.067)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="str">
+        <f>"Markup_lag"</f>
+        <v>Markup_lag</v>
+      </c>
+      <c r="B16" s="3" t="str">
+        <f>"-0.005*"</f>
+        <v>-0.005*</v>
+      </c>
+      <c r="C16" s="3" t="str">
+        <f>"-0.004"</f>
+        <v>-0.004</v>
+      </c>
+      <c r="D16" s="3" t="str">
+        <f>"-0.005*"</f>
+        <v>-0.005*</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="B17" s="3" t="str">
+        <f>"(0.003)"</f>
+        <v>(0.003)</v>
+      </c>
+      <c r="C17" s="3" t="str">
+        <f>"(0.003)"</f>
+        <v>(0.003)</v>
+      </c>
+      <c r="D17" s="3" t="str">
+        <f>"(0.003)"</f>
+        <v>(0.003)</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="str">
+        <f>"tfp_lag"</f>
+        <v>tfp_lag</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3" t="str">
+        <f>"-0.014***"</f>
+        <v>-0.014***</v>
+      </c>
+      <c r="F18" s="3" t="str">
+        <f>"-0.014***"</f>
+        <v>-0.014***</v>
+      </c>
+      <c r="G18" s="3" t="str">
+        <f>"-0.014***"</f>
+        <v>-0.014***</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="str">
+        <f>""</f>
+        <v/>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3" t="str">
+        <f>"(0.004)"</f>
+        <v>(0.004)</v>
+      </c>
+      <c r="F19" s="3" t="str">
+        <f>"(0.004)"</f>
+        <v>(0.004)</v>
+      </c>
+      <c r="G19" s="3" t="str">
+        <f>"(0.004)"</f>
+        <v>(0.004)</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="str">
+        <f>"Year FE "</f>
+        <v xml:space="preserve">Year FE </v>
+      </c>
+      <c r="B20" s="3" t="str">
+        <f>"Yes"</f>
+        <v>Yes</v>
+      </c>
+      <c r="C20" s="3" t="str">
+        <f>"Yes"</f>
+        <v>Yes</v>
+      </c>
+      <c r="D20" s="3" t="str">
+        <f>"Yes"</f>
+        <v>Yes</v>
+      </c>
+      <c r="E20" s="3" t="str">
+        <f>"Yes"</f>
+        <v>Yes</v>
+      </c>
+      <c r="F20" s="3" t="str">
+        <f>"Yes"</f>
+        <v>Yes</v>
+      </c>
+      <c r="G20" s="3" t="str">
+        <f>"Yes"</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="str">
+        <f>"Firm-product-country FE"</f>
+        <v>Firm-product-country FE</v>
+      </c>
+      <c r="B21" s="3" t="str">
+        <f>"Yes"</f>
+        <v>Yes</v>
+      </c>
+      <c r="C21" s="3" t="str">
+        <f>"Yes"</f>
+        <v>Yes</v>
+      </c>
+      <c r="D21" s="3" t="str">
+        <f>"Yes"</f>
+        <v>Yes</v>
+      </c>
+      <c r="E21" s="3" t="str">
+        <f>"Yes"</f>
+        <v>Yes</v>
+      </c>
+      <c r="F21" s="3" t="str">
+        <f>"Yes"</f>
+        <v>Yes</v>
+      </c>
+      <c r="G21" s="3" t="str">
+        <f>"Yes"</f>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="4" t="str">
+        <f>"1418443"</f>
+        <v>1418443</v>
+      </c>
+      <c r="C22" s="4" t="str">
+        <f>"1418443"</f>
+        <v>1418443</v>
+      </c>
+      <c r="D22" s="4" t="str">
+        <f>"1418443"</f>
+        <v>1418443</v>
+      </c>
+      <c r="E22" s="4" t="str">
+        <f>"1418443"</f>
+        <v>1418443</v>
+      </c>
+      <c r="F22" s="4" t="str">
+        <f>"1418443"</f>
+        <v>1418443</v>
+      </c>
+      <c r="G22" s="4" t="str">
+        <f>"1418443"</f>
+        <v>1418443</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>